--- a/natmiOut/OldD0/LR-pairs_lrc2p/Clec11a-Itgb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Clec11a-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.812763312841479</v>
+        <v>9.930652333333333</v>
       </c>
       <c r="H2">
-        <v>9.812763312841479</v>
+        <v>29.791957</v>
       </c>
       <c r="I2">
-        <v>0.968302560894522</v>
+        <v>0.9673539331442913</v>
       </c>
       <c r="J2">
-        <v>0.968302560894522</v>
+        <v>0.9673539331442912</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N2">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q2">
-        <v>1038.001664773555</v>
+        <v>1162.32886265993</v>
       </c>
       <c r="R2">
-        <v>1038.001664773555</v>
+        <v>10460.95976393937</v>
       </c>
       <c r="S2">
-        <v>0.294632627592914</v>
+        <v>0.3139417221595958</v>
       </c>
       <c r="T2">
-        <v>0.294632627592914</v>
+        <v>0.3139417221595958</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.812763312841479</v>
+        <v>9.930652333333333</v>
       </c>
       <c r="H3">
-        <v>9.812763312841479</v>
+        <v>29.791957</v>
       </c>
       <c r="I3">
-        <v>0.968302560894522</v>
+        <v>0.9673539331442913</v>
       </c>
       <c r="J3">
-        <v>0.968302560894522</v>
+        <v>0.9673539331442912</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N3">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q3">
-        <v>995.9097699455173</v>
+        <v>1008.756034764354</v>
       </c>
       <c r="R3">
-        <v>995.9097699455173</v>
+        <v>9078.804312879185</v>
       </c>
       <c r="S3">
-        <v>0.282685011327525</v>
+        <v>0.2724621378394373</v>
       </c>
       <c r="T3">
-        <v>0.282685011327525</v>
+        <v>0.2724621378394372</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.812763312841479</v>
+        <v>9.930652333333333</v>
       </c>
       <c r="H4">
-        <v>9.812763312841479</v>
+        <v>29.791957</v>
       </c>
       <c r="I4">
-        <v>0.968302560894522</v>
+        <v>0.9673539331442913</v>
       </c>
       <c r="J4">
-        <v>0.968302560894522</v>
+        <v>0.9673539331442912</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N4">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q4">
-        <v>1377.454368262293</v>
+        <v>1410.418666888908</v>
       </c>
       <c r="R4">
-        <v>1377.454368262293</v>
+        <v>12693.76800200018</v>
       </c>
       <c r="S4">
-        <v>0.390984921974083</v>
+        <v>0.3809500731452582</v>
       </c>
       <c r="T4">
-        <v>0.390984921974083</v>
+        <v>0.3809500731452581</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.32122136213078</v>
+        <v>0.3351376666666666</v>
       </c>
       <c r="H5">
-        <v>0.32122136213078</v>
+        <v>1.005413</v>
       </c>
       <c r="I5">
-        <v>0.03169743910547795</v>
+        <v>0.03264606685570878</v>
       </c>
       <c r="J5">
-        <v>0.03169743910547795</v>
+        <v>0.03264606685570878</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N5">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q5">
-        <v>33.97904321367228</v>
+        <v>39.22604173983966</v>
       </c>
       <c r="R5">
-        <v>33.97904321367228</v>
+        <v>353.0343756585569</v>
       </c>
       <c r="S5">
-        <v>0.009644815730928001</v>
+        <v>0.01059484238318569</v>
       </c>
       <c r="T5">
-        <v>0.009644815730928001</v>
+        <v>0.01059484238318569</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.32122136213078</v>
+        <v>0.3351376666666666</v>
       </c>
       <c r="H6">
-        <v>0.32122136213078</v>
+        <v>1.005413</v>
       </c>
       <c r="I6">
-        <v>0.03169743910547795</v>
+        <v>0.03264606685570878</v>
       </c>
       <c r="J6">
-        <v>0.03169743910547795</v>
+        <v>0.03264606685570878</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N6">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q6">
-        <v>32.60116265543709</v>
+        <v>34.04329669180622</v>
       </c>
       <c r="R6">
-        <v>32.60116265543709</v>
+        <v>306.389670226256</v>
       </c>
       <c r="S6">
-        <v>0.009253709836631976</v>
+        <v>0.009194997676438717</v>
       </c>
       <c r="T6">
-        <v>0.009253709836631976</v>
+        <v>0.009194997676438714</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.32122136213078</v>
+        <v>0.3351376666666666</v>
       </c>
       <c r="H7">
-        <v>0.32122136213078</v>
+        <v>1.005413</v>
       </c>
       <c r="I7">
-        <v>0.03169743910547795</v>
+        <v>0.03264606685570878</v>
       </c>
       <c r="J7">
-        <v>0.03169743910547795</v>
+        <v>0.03264606685570878</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N7">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q7">
-        <v>45.09104666441623</v>
+        <v>47.59852678133155</v>
       </c>
       <c r="R7">
-        <v>45.09104666441623</v>
+        <v>428.386741031984</v>
       </c>
       <c r="S7">
-        <v>0.01279891353791798</v>
+        <v>0.01285622679608437</v>
       </c>
       <c r="T7">
-        <v>0.01279891353791798</v>
+        <v>0.01285622679608437</v>
       </c>
     </row>
   </sheetData>
